--- a/Commsights.MVC/wwwroot/Download/Excel/Scan.xlsx
+++ b/Commsights.MVC/wwwroot/Download/Excel/Scan.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Commsights\Commsights.MVC\wwwroot\Download\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Date</t>
   </si>
@@ -136,13 +141,16 @@
   </si>
   <si>
     <t>ADVE</t>
+  </si>
+  <si>
+    <t>Industry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +197,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -235,7 +251,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -267,9 +283,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -301,6 +318,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -476,19 +494,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AO1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="40" width="20.7109375" customWidth="1"/>
+    <col min="1" max="41" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,117 +514,120 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -616,24 +637,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
